--- a/XLS_FILES/attendance_sheet/attendance_sheet - Fri Dec 05 2025 - Aditya Watekar(2).xlsx
+++ b/XLS_FILES/attendance_sheet/attendance_sheet - Fri Dec 05 2025 - Aditya Watekar(2).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>SrNo</t>
   </si>
@@ -25,19 +25,10 @@
     <t>Physics</t>
   </si>
   <si>
-    <t>33</t>
+    <t>8</t>
   </si>
   <si>
     <t>Saket Fulewar</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Ketan Kurve</t>
   </si>
 </sst>
 </file>
@@ -447,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -478,22 +469,8 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
+      <c r="D2" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
